--- a/Sprint Backlog Template.xlsx
+++ b/Sprint Backlog Template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="174">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -395,15 +395,9 @@
     <t>As a player I want to be able to recognize the item without needing to pause gameplay</t>
   </si>
   <si>
-    <t>As a plyer I want to see what the effect is of the weapon immediately.</t>
-  </si>
-  <si>
     <t>As a player, I want to use common keys for input in this game.</t>
   </si>
   <si>
-    <t>Dates: Sep 5, 2015 - Sep 16, 2015</t>
-  </si>
-  <si>
     <t>As a player, I want to see how long I have been on the current level.</t>
   </si>
   <si>
@@ -437,9 +431,6 @@
     <t>As a player, I want to have a variety of enemies in the game with interesting behavior.</t>
   </si>
   <si>
-    <t xml:space="preserve">As a player, when my ship explodes, I loss all my powers bur a fraction of the power ups that I collected are released in various directions. </t>
-  </si>
-  <si>
     <t>As a player, I want to know a history of my friends scores and my scores on a leaderboard, that tracks them.</t>
   </si>
   <si>
@@ -455,9 +446,6 @@
     <t>As a player I want to be able to adjust the options.</t>
   </si>
   <si>
-    <t>As a plyer I want a background for the level.</t>
-  </si>
-  <si>
     <t>As a player I want enemies to spawn on the screen and attack me</t>
   </si>
   <si>
@@ -486,13 +474,91 @@
   </si>
   <si>
     <t>ryan</t>
+  </si>
+  <si>
+    <t>The program launches using the default sizing.</t>
+  </si>
+  <si>
+    <t>Screen sizing is implemented into the menu.</t>
+  </si>
+  <si>
+    <t>Items are consumed when the player moves over them.</t>
+  </si>
+  <si>
+    <t>The item is seen and moving around in the game.</t>
+  </si>
+  <si>
+    <t>As a player I want to see what the effect is of the weapon immediately.</t>
+  </si>
+  <si>
+    <t>Weapon effects are visually seen on the client screen.</t>
+  </si>
+  <si>
+    <t>The player ship is responding to user input.</t>
+  </si>
+  <si>
+    <t>The timer is connected to the interface.</t>
+  </si>
+  <si>
+    <t>A ship is available for use in the gameset that acts independent of the other ships.</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>The leader board displays with the played games.</t>
+  </si>
+  <si>
+    <t>A main screen is presented to the player on the game start.</t>
+  </si>
+  <si>
+    <t>Options are changed in real time after selection by the user.</t>
+  </si>
+  <si>
+    <t>Yuchen</t>
+  </si>
+  <si>
+    <t>Same as above since this is needed in the options menu.</t>
+  </si>
+  <si>
+    <t>The HUD overlays on the main level and displays content to the user.</t>
+  </si>
+  <si>
+    <t>When the game is started the default ship is created and controlable by the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player, when my ship explodes, I loss all my powers but a fraction of the power ups that I collected are released in various directions. </t>
+  </si>
+  <si>
+    <t>Upgrades are scattered back onto the screen for re-picking up.</t>
+  </si>
+  <si>
+    <t>A simple enemy is able to be used for debugging for filling the level for an easy opponent.</t>
+  </si>
+  <si>
+    <t>The background is available and scrolls with the player movement.</t>
+  </si>
+  <si>
+    <t>Enemies are able to spawn into the level given their starting coordinates.</t>
+  </si>
+  <si>
+    <t>Enemies are able to take more damage or move quicker on the level.</t>
+  </si>
+  <si>
+    <t>Enemies are able to move onto the screen from off screen as if out of line of sight and not appearing from magic.</t>
+  </si>
+  <si>
+    <t>As a player I want a background for the level.</t>
+  </si>
+  <si>
+    <t>Dates: Sep 3, 2015 - Sep 17, 2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -531,21 +597,37 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -556,7 +638,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -614,17 +696,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -659,15 +730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -681,41 +743,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -855,57 +888,299 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -913,289 +1188,396 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1502,629 +1884,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="68" style="67" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="43" style="67" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="67" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="67" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="3"/>
+    <row r="1" spans="1:7" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="91"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="79"/>
+      <c r="G6" s="93"/>
+    </row>
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
+      <c r="B7" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="79"/>
+      <c r="G7" s="93"/>
+    </row>
+    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="100"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="111"/>
+    </row>
+    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
+      <c r="B14" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="112" t="s">
+      <c r="C14" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="77"/>
+      <c r="G14" s="112"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="94"/>
+      <c r="B15" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="114"/>
+      <c r="G15" s="99"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="109"/>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="75"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="76" t="s">
+      <c r="E17" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
+      <c r="B18" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="79"/>
+      <c r="G18" s="93"/>
+    </row>
+    <row r="19" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="94"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D19" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+    </row>
+    <row r="21" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="77"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="77"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="77"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="81"/>
-    </row>
-    <row r="10" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
-      <c r="B10" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="113" t="s">
+      <c r="E21" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="79"/>
+      <c r="G22" s="93"/>
+    </row>
+    <row r="23" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="94"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="98"/>
+      <c r="G23" s="99"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="115"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="120" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="120"/>
+      <c r="G25" s="122"/>
+    </row>
+    <row r="26" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="94"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="95"/>
+      <c r="G26" s="123"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="115"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="124"/>
+    </row>
+    <row r="28" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="126" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="107"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="124"/>
+    </row>
+    <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="75"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="114" t="s">
+      <c r="E30" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+    </row>
+    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="131"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="77"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="115" t="s">
+      <c r="E31" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="81"/>
+      <c r="G31" s="132"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="131"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="77"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="77"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="81"/>
-    </row>
-    <row r="15" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="75"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="77"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="77"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="77"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="81"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="95"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="75"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="77"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="77"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="95"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="77"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="95"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="81"/>
-    </row>
-    <row r="25" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="113" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="74"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="83"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="95"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="84"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="84"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="95"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="84"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="84"/>
-    </row>
-    <row r="30" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="95"/>
-      <c r="B30" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="83"/>
-    </row>
-    <row r="31" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="95"/>
-      <c r="B31" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="77"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="77"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="95"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="77"/>
-    </row>
-    <row r="34" spans="1:7" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="95"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="77"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="95"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="81"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="75"/>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="95"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="76" t="s">
+      <c r="E32" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="82"/>
+      <c r="G32" s="133"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="134"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="114" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="77"/>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="95"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="77"/>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="95"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="77"/>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="81"/>
-    </row>
-    <row r="41" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="74"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="75"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="95"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="114" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="78"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="77"/>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="95"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="77"/>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="95"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="77"/>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="95"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="77"/>
-    </row>
-    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="88"/>
-    </row>
-    <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="95"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="104"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="90"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="105"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="91"/>
-    </row>
-    <row r="49" spans="1:7" s="50" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="92"/>
-    </row>
-    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C51" s="109" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="104"/>
-      <c r="F51" s="104"/>
-      <c r="G51" s="104"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="110" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="110" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="110" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="110" t="s">
-        <v>151</v>
-      </c>
+      <c r="D33" s="136" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="135"/>
+      <c r="G33" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2153,898 +2414,908 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="35" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="35" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="37"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="37"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="61" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="37"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="37"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="37"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="37"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="37"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="37" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="37"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="37"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="37"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="37"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="37"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="37" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="37"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="61" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="37"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="37"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="37" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="31"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="34"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="41" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="34"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="39"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="31"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="34"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="31" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="34"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="31" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="34"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="39"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="31"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="41" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="15" t="s">
+      <c r="E37" s="27"/>
+      <c r="F37" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="34"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="31" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="15" t="s">
+      <c r="E38" s="27"/>
+      <c r="F38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="34"/>
+      <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="34"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="39"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="41" t="s">
+      <c r="A42" s="49"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="43"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="31" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="43"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="31" t="s">
+      <c r="A44" s="49"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G44" s="43"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="49"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G45" s="43"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="53" t="s">
+      <c r="A46" s="49"/>
+      <c r="B46" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="41" t="s">
+      <c r="A47" s="49"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G47" s="34"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="31" t="s">
+      <c r="A48" s="49"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="34"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="31" t="s">
+      <c r="A49" s="49"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="34"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="31" t="s">
+      <c r="A50" s="49"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G50" s="34"/>
+      <c r="G50" s="27"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="67" t="s">
+      <c r="D51" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="65" t="s">
+      <c r="E51" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="66" t="s">
+      <c r="F51" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="65"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="60"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="60"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="29" t="s">
+      <c r="A56" s="49"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G56" s="34"/>
+      <c r="G56" s="27"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="29" t="s">
+      <c r="A57" s="49"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="34"/>
+      <c r="G57" s="27"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="29" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G58" s="34"/>
+      <c r="G58" s="27"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="39" t="s">
+      <c r="A60" s="49"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="39" t="s">
+      <c r="G60" s="32" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="51" t="s">
+      <c r="A61" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="47" t="s">
+      <c r="E61" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="44" t="s">
+      <c r="F61" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G61" s="47" t="s">
+      <c r="G61" s="40" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="39" t="s">
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="48" t="s">
+      <c r="D62" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="48" t="s">
+      <c r="F62" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="49" t="s">
+      <c r="G62" s="42" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A36:A40"/>
@@ -3061,16 +3332,6 @@
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="B31:B35"/>
     <mergeCell ref="A5:A14"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A51:A60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Sprint Backlog Template.xlsx
+++ b/Sprint Backlog Template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="177">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -515,12 +515,6 @@
     <t>Options are changed in real time after selection by the user.</t>
   </si>
   <si>
-    <t>Yuchen</t>
-  </si>
-  <si>
-    <t>Same as above since this is needed in the options menu.</t>
-  </si>
-  <si>
     <t>The HUD overlays on the main level and displays content to the user.</t>
   </si>
   <si>
@@ -552,6 +546,21 @@
   </si>
   <si>
     <t>Dates: Sep 3, 2015 - Sep 17, 2015</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>implementing in progress</t>
+  </si>
+  <si>
+    <t>polishing</t>
   </si>
 </sst>
 </file>
@@ -1247,19 +1256,324 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1274,311 +1588,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1884,504 +1893,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="74" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="68" style="67" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="43" style="67" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="67" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="67" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="67"/>
+    <col min="1" max="1" width="16.28515625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="68" style="48" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="43" style="48" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="48" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="48" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="69"/>
+    <row r="1" spans="1:7" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="72"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="74"/>
+    </row>
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="89" t="s">
+      <c r="G7" s="74" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="80"/>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="66"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="87"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="91"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="93"/>
-    </row>
-    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="93"/>
-    </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-    </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="111"/>
+      <c r="F13" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="92"/>
     </row>
     <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="76" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="112"/>
+      <c r="F14" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="94"/>
-      <c r="B15" s="113" t="s">
+      <c r="A15" s="75"/>
+      <c r="B15" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="114"/>
-      <c r="G15" s="99"/>
+      <c r="F15" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="109"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="90"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
+      <c r="F17" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="80" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="93"/>
-    </row>
-    <row r="19" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="94"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="98" t="s">
+      <c r="F18" s="60"/>
+      <c r="G18" s="74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+    </row>
+    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="F20" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="72"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="74"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="75"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="80"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="99"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-    </row>
-    <row r="21" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="90" t="s">
+      <c r="F24" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="103"/>
+    </row>
+    <row r="25" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-    </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="93"/>
-    </row>
-    <row r="23" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="94"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="98" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="98"/>
-      <c r="G23" s="99"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-    </row>
-    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="120" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="120" t="s">
+      <c r="E25" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="120"/>
-      <c r="G25" s="122"/>
-    </row>
-    <row r="26" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95" t="s">
+      <c r="F25" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="104"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="105"/>
+    </row>
+    <row r="27" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="106" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="113" t="s">
+      <c r="F27" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="108"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="88"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="105"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="123"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="124"/>
-    </row>
-    <row r="28" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="126" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="126" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="126" t="s">
+      <c r="F29" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="72"/>
+    </row>
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="112"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="107"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="124"/>
-    </row>
-    <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="130" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="90" t="s">
+      <c r="F30" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="113"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="112"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="90" t="s">
+      <c r="E31" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-    </row>
-    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="131"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="81" t="s">
+      <c r="F31" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="114"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="115"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="117" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E32" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="132"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="131"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="F32" s="82"/>
-      <c r="G32" s="133"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="134"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="136" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="136" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="135" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="135"/>
-      <c r="G33" s="137"/>
+      <c r="F32" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2423,15 +2463,15 @@
       <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2470,10 +2510,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="123" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -2491,8 +2531,8 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="28" t="s">
         <v>57</v>
       </c>
@@ -2510,8 +2550,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="28" t="s">
         <v>61</v>
       </c>
@@ -2529,8 +2569,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
       <c r="E8" s="30"/>
@@ -2538,8 +2578,8 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="30"/>
       <c r="D9" s="31"/>
       <c r="E9" s="30"/>
@@ -2547,8 +2587,8 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="59" t="s">
+      <c r="A10" s="137"/>
+      <c r="B10" s="129" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -2566,8 +2606,8 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="28" t="s">
         <v>65</v>
       </c>
@@ -2585,8 +2625,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="30"/>
       <c r="D12" s="31"/>
       <c r="E12" s="30"/>
@@ -2594,8 +2634,8 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="30"/>
       <c r="D13" s="31"/>
       <c r="E13" s="30"/>
@@ -2603,8 +2643,8 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="30"/>
       <c r="D14" s="31"/>
       <c r="E14" s="30"/>
@@ -2612,10 +2652,10 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="129" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="28"/>
@@ -2625,8 +2665,8 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
@@ -2634,8 +2674,8 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="30" t="s">
         <v>23</v>
       </c>
@@ -2651,8 +2691,8 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
       <c r="E18" s="30"/>
@@ -2660,8 +2700,8 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="30"/>
@@ -2669,8 +2709,8 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="59" t="s">
+      <c r="A20" s="137"/>
+      <c r="B20" s="129" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="28"/>
@@ -2680,8 +2720,8 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -2689,8 +2729,8 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="30" t="s">
         <v>26</v>
       </c>
@@ -2706,8 +2746,8 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="137"/>
+      <c r="B23" s="129" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="28"/>
@@ -2717,8 +2757,8 @@
       <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
@@ -2726,8 +2766,8 @@
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="30" t="s">
         <v>74</v>
       </c>
@@ -2743,10 +2783,10 @@
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="121" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="33"/>
@@ -2756,8 +2796,8 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="34"/>
       <c r="D27" s="5"/>
       <c r="E27" s="24"/>
@@ -2765,8 +2805,8 @@
       <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="34" t="s">
         <v>75</v>
       </c>
@@ -2784,8 +2824,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="24"/>
       <c r="D29" s="8"/>
       <c r="E29" s="27"/>
@@ -2793,8 +2833,8 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
       <c r="E30" s="32"/>
@@ -2802,8 +2842,8 @@
       <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="43" t="s">
+      <c r="A31" s="127"/>
+      <c r="B31" s="121" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="34"/>
@@ -2813,8 +2853,8 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="34"/>
       <c r="D32" s="7"/>
       <c r="E32" s="27"/>
@@ -2822,8 +2862,8 @@
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="24" t="s">
         <v>15</v>
       </c>
@@ -2839,8 +2879,8 @@
       <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="24" t="s">
         <v>19</v>
       </c>
@@ -2856,8 +2896,8 @@
       <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
       <c r="E35" s="32"/>
@@ -2865,10 +2905,10 @@
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="121" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="34"/>
@@ -2878,8 +2918,8 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="34" t="s">
         <v>49</v>
       </c>
@@ -2893,8 +2933,8 @@
       <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="24" t="s">
         <v>78</v>
       </c>
@@ -2908,8 +2948,8 @@
       <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="127"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="24"/>
       <c r="D39" s="8"/>
       <c r="E39" s="27"/>
@@ -2917,8 +2957,8 @@
       <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="122"/>
       <c r="C40" s="3"/>
       <c r="D40" s="9"/>
       <c r="E40" s="32"/>
@@ -2926,10 +2966,10 @@
       <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="121" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="34" t="s">
@@ -2949,8 +2989,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="44"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="122"/>
       <c r="C42" s="34" t="s">
         <v>34</v>
       </c>
@@ -2966,8 +3006,8 @@
       <c r="G42" s="36"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="122"/>
       <c r="C43" s="24" t="s">
         <v>36</v>
       </c>
@@ -2983,8 +3023,8 @@
       <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="24" t="s">
         <v>38</v>
       </c>
@@ -3000,8 +3040,8 @@
       <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="127"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="3" t="s">
         <v>80</v>
       </c>
@@ -3017,8 +3057,8 @@
       <c r="G45" s="36"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="43" t="s">
+      <c r="A46" s="127"/>
+      <c r="B46" s="121" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="34" t="s">
@@ -3038,8 +3078,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="122"/>
       <c r="C47" s="34" t="s">
         <v>43</v>
       </c>
@@ -3055,8 +3095,8 @@
       <c r="G47" s="27"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="44"/>
+      <c r="A48" s="127"/>
+      <c r="B48" s="122"/>
       <c r="C48" s="24" t="s">
         <v>45</v>
       </c>
@@ -3072,8 +3112,8 @@
       <c r="G48" s="27"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="24" t="s">
         <v>46</v>
       </c>
@@ -3089,8 +3129,8 @@
       <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="24" t="s">
         <v>82</v>
       </c>
@@ -3106,65 +3146,65 @@
       <c r="G50" s="27"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="51" t="s">
+      <c r="F51" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="50"/>
+      <c r="G51" s="133"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
+      <c r="A52" s="127"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="49"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="127"/>
+      <c r="B56" s="122"/>
       <c r="C56" s="22" t="s">
         <v>92</v>
       </c>
@@ -3180,8 +3220,8 @@
       <c r="G56" s="27"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="44"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="122"/>
       <c r="C57" s="22" t="s">
         <v>94</v>
       </c>
@@ -3197,8 +3237,8 @@
       <c r="G57" s="27"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="44"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="22" t="s">
         <v>96</v>
       </c>
@@ -3214,8 +3254,8 @@
       <c r="G58" s="27"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="57" t="s">
+      <c r="A59" s="127"/>
+      <c r="B59" s="123" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="27" t="s">
@@ -3235,8 +3275,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="44"/>
+      <c r="A60" s="127"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="32" t="s">
         <v>87</v>
       </c>
@@ -3254,10 +3294,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="121" t="s">
         <v>101</v>
       </c>
       <c r="C61" s="24" t="s">
@@ -3277,8 +3317,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="122"/>
+      <c r="B62" s="122"/>
       <c r="C62" s="32" t="s">
         <v>105</v>
       </c>
@@ -3306,16 +3346,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A36:A40"/>
@@ -3332,6 +3362,16 @@
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="B31:B35"/>
     <mergeCell ref="A5:A14"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A51:A60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Sprint Backlog Template.xlsx
+++ b/Sprint Backlog Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back up of school files\Software Design &amp; Development\SDDGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm15_000\Documents\GitHub\SDDGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="178">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -557,10 +557,13 @@
     <t>pending</t>
   </si>
   <si>
-    <t>implementing in progress</t>
-  </si>
-  <si>
     <t>polishing</t>
+  </si>
+  <si>
+    <t>item class needed</t>
+  </si>
+  <si>
+    <t>weapon/bullet sprites needed</t>
   </si>
 </sst>
 </file>
@@ -1552,41 +1555,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1895,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2016,7 +2019,7 @@
         <v>150</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="74" t="s">
         <v>175</v>
@@ -2037,7 +2040,9 @@
       <c r="F8" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="80"/>
+      <c r="G8" s="80" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
@@ -2054,7 +2059,9 @@
       <c r="F9" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="66" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="81"/>
@@ -2179,7 +2186,7 @@
         <v>172</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -2463,15 +2470,15 @@
       <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2510,10 +2517,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="135" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -2531,7 +2538,7 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="122"/>
       <c r="C6" s="28" t="s">
         <v>57</v>
@@ -2550,7 +2557,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="122"/>
       <c r="C7" s="28" t="s">
         <v>61</v>
@@ -2569,7 +2576,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="137"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="122"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
@@ -2578,8 +2585,8 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="128"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="30"/>
       <c r="D9" s="31"/>
       <c r="E9" s="30"/>
@@ -2587,8 +2594,8 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
-      <c r="B10" s="129" t="s">
+      <c r="A10" s="132"/>
+      <c r="B10" s="137" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -2606,7 +2613,7 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="122"/>
       <c r="C11" s="28" t="s">
         <v>65</v>
@@ -2625,7 +2632,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="122"/>
       <c r="C12" s="30"/>
       <c r="D12" s="31"/>
@@ -2634,7 +2641,7 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="122"/>
       <c r="C13" s="30"/>
       <c r="D13" s="31"/>
@@ -2643,8 +2650,8 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="30"/>
       <c r="D14" s="31"/>
       <c r="E14" s="30"/>
@@ -2652,10 +2659,10 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="137" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="28"/>
@@ -2665,7 +2672,7 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="122"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -2674,7 +2681,7 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="122"/>
       <c r="C17" s="30" t="s">
         <v>23</v>
@@ -2691,7 +2698,7 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="122"/>
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
@@ -2700,8 +2707,8 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="137"/>
-      <c r="B19" s="128"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="30"/>
@@ -2709,8 +2716,8 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="137"/>
-      <c r="B20" s="129" t="s">
+      <c r="A20" s="132"/>
+      <c r="B20" s="137" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="28"/>
@@ -2720,7 +2727,7 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="137"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="122"/>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
@@ -2729,8 +2736,8 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="137"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="136"/>
       <c r="C22" s="30" t="s">
         <v>26</v>
       </c>
@@ -2746,8 +2753,8 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="137"/>
-      <c r="B23" s="129" t="s">
+      <c r="A23" s="132"/>
+      <c r="B23" s="137" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="28"/>
@@ -2757,7 +2764,7 @@
       <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="137"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="122"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
@@ -2766,8 +2773,8 @@
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="138"/>
-      <c r="B25" s="128"/>
+      <c r="A25" s="133"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="30" t="s">
         <v>74</v>
       </c>
@@ -3149,22 +3156,22 @@
       <c r="A51" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="124" t="s">
+      <c r="B51" s="138" t="s">
         <v>89</v>
       </c>
       <c r="C51" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="135" t="s">
+      <c r="D51" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="133" t="s">
+      <c r="E51" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="134" t="s">
+      <c r="F51" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="133"/>
+      <c r="G51" s="128"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="127"/>
@@ -3255,7 +3262,7 @@
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="127"/>
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="135" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="27" t="s">
@@ -3294,7 +3301,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="125" t="s">
+      <c r="A61" s="139" t="s">
         <v>100</v>
       </c>
       <c r="B61" s="121" t="s">
@@ -3346,6 +3353,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A36:A40"/>
@@ -3362,16 +3379,6 @@
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="B31:B35"/>
     <mergeCell ref="A5:A14"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A51:A60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Sprint Backlog Template.xlsx
+++ b/Sprint Backlog Template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="188">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -557,10 +557,43 @@
     <t>pending</t>
   </si>
   <si>
-    <t>implementing in progress</t>
-  </si>
-  <si>
-    <t>polishing</t>
+    <t>implementing in progress, collisions are working but the items changes to the weapons are not in place</t>
+  </si>
+  <si>
+    <t>item abilities are awaitng until the weapons are in place</t>
+  </si>
+  <si>
+    <t>pending implementation of other menu objects</t>
+  </si>
+  <si>
+    <t>area blocked out for use with score</t>
+  </si>
+  <si>
+    <t>display working, pending integration with the ship</t>
+  </si>
+  <si>
+    <t>display working, pending integration of the items</t>
+  </si>
+  <si>
+    <t>other ships have images and some stats are in place for other ships</t>
+  </si>
+  <si>
+    <t>pending item upgrades working</t>
+  </si>
+  <si>
+    <t>pending implementation of the ship, as it inherts from there</t>
+  </si>
+  <si>
+    <t>Level back ground is working</t>
+  </si>
+  <si>
+    <t>pending on enemies implementation</t>
+  </si>
+  <si>
+    <t>pending on enemies implementation, and difficulty settings</t>
+  </si>
+  <si>
+    <t>pending enemies implementation</t>
   </si>
 </sst>
 </file>
@@ -633,7 +666,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1158,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1256,15 +1289,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1289,257 +1313,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1552,28 +1328,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1588,6 +1351,216 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1896,532 +1869,556 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="68" style="48" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="43" style="48" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="48" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="48" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="48"/>
+    <col min="1" max="1" width="16.28515625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="68" style="45" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="43" style="45" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="45" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="50"/>
+    <row r="1" spans="1:7" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="72"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="61" t="s">
+      <c r="G5" s="74"/>
+    </row>
+    <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="74"/>
-    </row>
-    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="57" t="s">
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A7" s="90"/>
+      <c r="B7" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="75" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77" t="s">
+    <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="80"/>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66" t="s">
+      <c r="G8" s="98" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="66"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83" t="s">
+      <c r="G9" s="98" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+    </row>
+    <row r="11" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="107"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+    </row>
+    <row r="13" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="74"/>
+    </row>
+    <row r="14" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="90"/>
+      <c r="B14" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="75"/>
+    </row>
+    <row r="15" spans="1:7" ht="94.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="95"/>
+      <c r="B15" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="98"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="112"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="110"/>
+    </row>
+    <row r="17" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="74"/>
+    </row>
+    <row r="18" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="90"/>
+      <c r="B18" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="87"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-    </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="92"/>
-    </row>
-    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="61" t="s">
+      <c r="G18" s="75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="112"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A20" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="90"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+    </row>
+    <row r="24" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="93"/>
-    </row>
-    <row r="15" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
-      <c r="B15" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" s="80"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="90"/>
-    </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="74" t="s">
+      <c r="E24" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="96" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-    </row>
-    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" s="72"/>
-    </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" s="74"/>
-    </row>
-    <row r="22" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" s="80"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="96"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-    </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="102" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="103"/>
-    </row>
-    <row r="25" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="104"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="105"/>
-    </row>
-    <row r="27" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83" t="s">
+      <c r="G25" s="78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="112"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="79"/>
+    </row>
+    <row r="27" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="103" t="s">
         <v>131</v>
       </c>
       <c r="B27" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="107" t="s">
+      <c r="C27" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="107" t="s">
+      <c r="E27" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="107" t="s">
+      <c r="F27" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="108"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="105"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="110" t="s">
+      <c r="G27" s="80" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="108"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+    </row>
+    <row r="29" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="117"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="72"/>
-    </row>
-    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="112"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="62" t="s">
+      <c r="G30" s="75" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="117"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="62" t="s">
+      <c r="E31" s="118" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="G30" s="113"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="112"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="64" t="s">
+      <c r="G31" s="120" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="121"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="63" t="s">
+      <c r="E32" s="122" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="114"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="115"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="117" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="116" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="118"/>
+      <c r="G32" s="124" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2463,15 +2460,15 @@
       <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2510,10 +2507,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="68" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -2531,8 +2528,8 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
-      <c r="B6" s="122"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="28" t="s">
         <v>57</v>
       </c>
@@ -2550,8 +2547,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
-      <c r="B7" s="122"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="28" t="s">
         <v>61</v>
       </c>
@@ -2569,8 +2566,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="137"/>
-      <c r="B8" s="122"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
       <c r="E8" s="30"/>
@@ -2578,8 +2575,8 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="128"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="30"/>
       <c r="D9" s="31"/>
       <c r="E9" s="30"/>
@@ -2587,8 +2584,8 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
-      <c r="B10" s="129" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="70" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -2606,8 +2603,8 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="28" t="s">
         <v>65</v>
       </c>
@@ -2625,8 +2622,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
-      <c r="B12" s="122"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="30"/>
       <c r="D12" s="31"/>
       <c r="E12" s="30"/>
@@ -2634,8 +2631,8 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
-      <c r="B13" s="122"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="30"/>
       <c r="D13" s="31"/>
       <c r="E13" s="30"/>
@@ -2643,8 +2640,8 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="30"/>
       <c r="D14" s="31"/>
       <c r="E14" s="30"/>
@@ -2652,10 +2649,10 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="70" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="28"/>
@@ -2665,8 +2662,8 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
-      <c r="B16" s="122"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
@@ -2674,8 +2671,8 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
-      <c r="B17" s="122"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="30" t="s">
         <v>23</v>
       </c>
@@ -2691,8 +2688,8 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137"/>
-      <c r="B18" s="122"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
       <c r="E18" s="30"/>
@@ -2700,8 +2697,8 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="137"/>
-      <c r="B19" s="128"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="30"/>
@@ -2709,8 +2706,8 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="137"/>
-      <c r="B20" s="129" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="70" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="28"/>
@@ -2720,8 +2717,8 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="137"/>
-      <c r="B21" s="122"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -2729,8 +2726,8 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="137"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="30" t="s">
         <v>26</v>
       </c>
@@ -2746,8 +2743,8 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="137"/>
-      <c r="B23" s="129" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="70" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="28"/>
@@ -2757,8 +2754,8 @@
       <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="137"/>
-      <c r="B24" s="122"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
@@ -2766,8 +2763,8 @@
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="138"/>
-      <c r="B25" s="128"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="30" t="s">
         <v>74</v>
       </c>
@@ -2783,10 +2780,10 @@
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="54" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="33"/>
@@ -2796,8 +2793,8 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
-      <c r="B27" s="122"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="34"/>
       <c r="D27" s="5"/>
       <c r="E27" s="24"/>
@@ -2805,8 +2802,8 @@
       <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
-      <c r="B28" s="122"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="34" t="s">
         <v>75</v>
       </c>
@@ -2824,8 +2821,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="127"/>
-      <c r="B29" s="122"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="24"/>
       <c r="D29" s="8"/>
       <c r="E29" s="27"/>
@@ -2833,8 +2830,8 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
-      <c r="B30" s="122"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
       <c r="E30" s="32"/>
@@ -2842,8 +2839,8 @@
       <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="127"/>
-      <c r="B31" s="121" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="54" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="34"/>
@@ -2853,8 +2850,8 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="127"/>
-      <c r="B32" s="122"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="34"/>
       <c r="D32" s="7"/>
       <c r="E32" s="27"/>
@@ -2862,8 +2859,8 @@
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="127"/>
-      <c r="B33" s="122"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="24" t="s">
         <v>15</v>
       </c>
@@ -2879,8 +2876,8 @@
       <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
-      <c r="B34" s="122"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="24" t="s">
         <v>19</v>
       </c>
@@ -2896,8 +2893,8 @@
       <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="127"/>
-      <c r="B35" s="122"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
       <c r="E35" s="32"/>
@@ -2905,10 +2902,10 @@
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="126" t="s">
+      <c r="A36" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="54" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="34"/>
@@ -2918,8 +2915,8 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="127"/>
-      <c r="B37" s="122"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="34" t="s">
         <v>49</v>
       </c>
@@ -2933,8 +2930,8 @@
       <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="127"/>
-      <c r="B38" s="122"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="24" t="s">
         <v>78</v>
       </c>
@@ -2948,8 +2945,8 @@
       <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="127"/>
-      <c r="B39" s="122"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="24"/>
       <c r="D39" s="8"/>
       <c r="E39" s="27"/>
@@ -2957,8 +2954,8 @@
       <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="127"/>
-      <c r="B40" s="122"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="3"/>
       <c r="D40" s="9"/>
       <c r="E40" s="32"/>
@@ -2966,10 +2963,10 @@
       <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="126" t="s">
+      <c r="A41" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="54" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="34" t="s">
@@ -2989,8 +2986,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="127"/>
-      <c r="B42" s="122"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="34" t="s">
         <v>34</v>
       </c>
@@ -3006,8 +3003,8 @@
       <c r="G42" s="36"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="127"/>
-      <c r="B43" s="122"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="24" t="s">
         <v>36</v>
       </c>
@@ -3023,8 +3020,8 @@
       <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="127"/>
-      <c r="B44" s="122"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="24" t="s">
         <v>38</v>
       </c>
@@ -3040,8 +3037,8 @@
       <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="127"/>
-      <c r="B45" s="122"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="3" t="s">
         <v>80</v>
       </c>
@@ -3057,8 +3054,8 @@
       <c r="G45" s="36"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="127"/>
-      <c r="B46" s="121" t="s">
+      <c r="A46" s="60"/>
+      <c r="B46" s="54" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="34" t="s">
@@ -3078,8 +3075,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="127"/>
-      <c r="B47" s="122"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="34" t="s">
         <v>43</v>
       </c>
@@ -3095,8 +3092,8 @@
       <c r="G47" s="27"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="127"/>
-      <c r="B48" s="122"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="24" t="s">
         <v>45</v>
       </c>
@@ -3112,8 +3109,8 @@
       <c r="G48" s="27"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="127"/>
-      <c r="B49" s="122"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="24" t="s">
         <v>46</v>
       </c>
@@ -3129,8 +3126,8 @@
       <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="127"/>
-      <c r="B50" s="122"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="24" t="s">
         <v>82</v>
       </c>
@@ -3146,65 +3143,65 @@
       <c r="G50" s="27"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="124" t="s">
+      <c r="B51" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="121" t="s">
+      <c r="C51" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="135" t="s">
+      <c r="D51" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="133" t="s">
+      <c r="E51" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="134" t="s">
+      <c r="F51" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="133"/>
+      <c r="G51" s="61"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="127"/>
-      <c r="B52" s="122"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="127"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="122"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="127"/>
-      <c r="B54" s="122"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="127"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="127"/>
-      <c r="B56" s="122"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="22" t="s">
         <v>92</v>
       </c>
@@ -3220,8 +3217,8 @@
       <c r="G56" s="27"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="127"/>
-      <c r="B57" s="122"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="22" t="s">
         <v>94</v>
       </c>
@@ -3237,8 +3234,8 @@
       <c r="G57" s="27"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="127"/>
-      <c r="B58" s="122"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="22" t="s">
         <v>96</v>
       </c>
@@ -3254,8 +3251,8 @@
       <c r="G58" s="27"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="127"/>
-      <c r="B59" s="123" t="s">
+      <c r="A59" s="60"/>
+      <c r="B59" s="68" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="27" t="s">
@@ -3275,8 +3272,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="127"/>
-      <c r="B60" s="122"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="32" t="s">
         <v>87</v>
       </c>
@@ -3294,10 +3291,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="125" t="s">
+      <c r="A61" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="121" t="s">
+      <c r="B61" s="54" t="s">
         <v>101</v>
       </c>
       <c r="C61" s="24" t="s">
@@ -3317,8 +3314,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="122"/>
-      <c r="B62" s="122"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="32" t="s">
         <v>105</v>
       </c>
@@ -3346,6 +3343,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A36:A40"/>
@@ -3362,16 +3369,6 @@
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="B31:B35"/>
     <mergeCell ref="A5:A14"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A51:A60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Sprint Backlog Template.xlsx
+++ b/Sprint Backlog Template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="101">
   <si>
     <t>Sprint Backlog Template:
 - Rollover unclosed user stories from the preivious sprint. 
@@ -335,6 +335,15 @@
   </si>
   <si>
     <t>Younouss</t>
+  </si>
+  <si>
+    <t>enemies do not currently attack</t>
+  </si>
+  <si>
+    <t>pending on difficulty settings</t>
+  </si>
+  <si>
+    <t>image file that is in use</t>
   </si>
 </sst>
 </file>
@@ -1071,6 +1080,224 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1078,224 +1305,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1629,11 +1638,11 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -2173,351 +2182,351 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.85546875" style="116" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="67"/>
+    <col min="1" max="1" width="19.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.85546875" style="114" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="66"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="76" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="81" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A7" s="88"/>
-      <c r="B7" s="90" t="s">
+      <c r="A7" s="86"/>
+      <c r="B7" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="89" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="93" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="97" t="s">
+      <c r="D9" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="93" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="87"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
-      <c r="B11" s="90" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="85" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90" t="s">
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="89" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94" t="s">
+      <c r="A15" s="90"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="94" t="s">
+      <c r="E15" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="94" t="s">
+      <c r="F15" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="93" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="86" t="s">
+      <c r="F17" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" s="101" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="94.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93" t="s">
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="104" t="s">
+      <c r="G18" s="102" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
     </row>
     <row r="20" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="105" t="s">
+      <c r="E20" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="106" t="s">
+      <c r="F20" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="104" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2525,162 +2534,168 @@
       <c r="A21" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="117"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="115"/>
     </row>
     <row r="22" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="107"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90" t="s">
+      <c r="A22" s="105"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="90" t="s">
+      <c r="F22" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="105"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="107"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="108" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="108" t="s">
+      <c r="G23" s="89" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="107"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="91" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="109"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="95" t="s">
+      <c r="F24" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="93" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="67"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="67"/>
+      <c r="E26" s="65"/>
     </row>
     <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="67"/>
+      <c r="E27" s="65"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E28" s="67"/>
+      <c r="E28" s="65"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E29" s="67"/>
+      <c r="E29" s="65"/>
     </row>
     <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E30" s="67"/>
+      <c r="E30" s="65"/>
     </row>
     <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E31" s="67"/>
+      <c r="E31" s="65"/>
     </row>
     <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E32" s="67"/>
+      <c r="E32" s="65"/>
     </row>
     <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E33" s="67"/>
+      <c r="E33" s="65"/>
     </row>
     <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E34" s="67"/>
+      <c r="E34" s="65"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E35" s="67"/>
+      <c r="E35" s="65"/>
     </row>
     <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E36" s="67"/>
+      <c r="E36" s="65"/>
     </row>
     <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E37" s="67"/>
+      <c r="E37" s="65"/>
     </row>
     <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E38" s="67"/>
+      <c r="E38" s="65"/>
     </row>
     <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E39" s="67"/>
+      <c r="E39" s="65"/>
     </row>
     <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E40" s="67"/>
+      <c r="E40" s="65"/>
     </row>
     <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E41" s="67"/>
+      <c r="E41" s="65"/>
     </row>
     <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E42" s="67"/>
+      <c r="E42" s="65"/>
     </row>
     <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E43" s="67"/>
+      <c r="E43" s="65"/>
     </row>
     <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E44" s="67"/>
+      <c r="E44" s="65"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="72"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="74"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="72"/>
     </row>
     <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
